--- a/utils/config/ReferenceLists/Result_Statuses.xlsx
+++ b/utils/config/ReferenceLists/Result_Statuses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C3A6333700F965A03484C817A88652BF4ECB1469" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{295782B0-AC1D-4C2B-A86B-F1358094B7CC}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_C3A6333700F965A03484C817A88652BF4ECB1469" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF0C5E59-199A-4D37-B45D-1287C0F7C149}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>customId</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>Suspect</t>
+  </si>
+  <si>
+    <t>systemCode</t>
+  </si>
+  <si>
+    <t>REQUESTED</t>
+  </si>
+  <si>
+    <t>PRELIMINARY</t>
   </si>
 </sst>
 </file>
@@ -387,33 +396,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
